--- a/static/data/python/sample exams/Cooper/Cooper_exam_sample_017.xlsx
+++ b/static/data/python/sample exams/Cooper/Cooper_exam_sample_017.xlsx
@@ -31,322 +31,328 @@
     <t>System</t>
   </si>
   <si>
-    <t>(295019AK2.11) Knowledge of the relationship between the (APE 19) PARTIAL OR COMPLETE LOSS OF INSTRUMENT AIR and the following systems or components: (CFR: 41.7 / 45.8) Radwaste</t>
-  </si>
-  <si>
-    <t>(295016AA2.04) Ability to determine and/or interpret the following as they apply to (APE 16) CONTROL ROOM ABANDONMENT: (CFR: 41.10 / 43.5 / 45.13) Suppression pool temperature</t>
-  </si>
-  <si>
-    <t>(295024EA1.10) Ability to operate and/or monitor the following as they apply to (EPE 1) HIGH DRYWELL PRESSURE: (CFR: 41.7 / 45.6) AC electrical distribution</t>
-  </si>
-  <si>
-    <t>(295038EK3.03) Knowledge of the reasons for the following responses or actions as they apply to (EPE 15) HIGH OFFSITE RADIOACTIVITY RELEASE RATE: (CFR: 41.5 / 45.6) Control room ventilation system isolation</t>
-  </si>
-  <si>
-    <t>(295004AA2.04) Ability to determine and/or interpret the following as they apply to (APE 4) PARTIAL OR COMPLETE LOSS OF DC POWER: (CFR: 41.10 / 43.5 / 45.13) System lineups</t>
-  </si>
-  <si>
-    <t>(295031) (EPE 8) REACTOR LOW WATER LEVEL (G2.4.21) EMERGENCY PROCEDURES / PLAN Knowledge of the parameters and logic used to assess the status of emergency operating procedures critical safety functions or shutdown critical safety functions (CFR: 41.7 / 43.5 / 45.12)</t>
-  </si>
-  <si>
-    <t>(295030EK2.08) Knowledge of the relationship between the (EPE 7) LOW SUPPRESSION POOL WATER LEVEL and the following systems or components: (CFR: 41.7 / 45.8) Systems required to depressurize the reactor</t>
-  </si>
-  <si>
-    <t>(295021AK1.04) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 21) LOSS OF SHUTDOWN COOLING:(CFR: 41.8 to 41.10) Natural circulation</t>
-  </si>
-  <si>
-    <t>(700000AA1.02) Ability to operate and/or monitor the following as they apply to (APE 25) GENERATOR VOLTAGE AND ELECTRIC GRID DISTURBANCES: (CFR: 41.5 / 41.10 / 45.5 / 45.7 / 45.8) Turbine/generator controls</t>
-  </si>
-  <si>
-    <t>(295023AK3.01) Knowledge of the reasons for the following responses or actions as they apply to (APE 23) REFUELING ACCIDENTS: (CFR: 41.5 / 45.6) Personnel evacuation</t>
-  </si>
-  <si>
-    <t>(295018AA2.06) Ability to determine and/or interpret the following as they apply to (APE 18) PARTIAL OR COMPLETE LOSS OF COMPONENT COOLING WATER (CCW): (CFR: 41.10 / 43.5 / 45.13) Surge tank level</t>
-  </si>
-  <si>
-    <t>(295005) (APE 5) MAIN TURBINE GENERATOR TRIP (G2.4.18) EMERGENCY PROCEDURES / PLAN Knowledge of the specific bases for emergency and abnormal operating procedures (CFR: 41.10 / 43.1 / 45.13)</t>
-  </si>
-  <si>
-    <t>(295026EK2.04) Knowledge of the relationship between the (EPE 3) SUPPRESSION POOL HIGH WATER TEMPERATURE and the following systems or components: (CFR: 41.7 / 45.8) Plant process computer/parameter display systems</t>
+    <t>(295023AK3.03) Knowledge of the reasons for the following responses or actions as they apply to (APE 23) REFUELING ACCIDENTS: (CFR: 41.5 / 45.6) Ventilation isolation</t>
+  </si>
+  <si>
+    <t>(700000AK1.02) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 25) GENERATOR VOLTAGE AND ELECTRIC GRID DISTURBANCES: (CFR: 41.4 / 41.5 / 41.7 / 41.10 / 45.8) Over-excitation</t>
+  </si>
+  <si>
+    <t>(295031EA1.09) Ability to operate and/or monitor the following as they apply to (EPE 8) REACTOR LOW WATER LEVEL: (CFR: 41.7 / 45.6) Isolation condenser (Nine Mile Point 1, Dresden)</t>
+  </si>
+  <si>
+    <t>(295037EK2.02) Knowledge of the relationship between the (EPE 14) SCRAM CONDITION PRESENT AND REACTOR POWER ABOVE APRM DOWNSCALE OR UNKNOWN and the following systems or components: (CFR: 41.7 / 41.8 / 45.8) Redundant reactivity control system</t>
+  </si>
+  <si>
+    <t>(295003) (APE 3) PARTIAL OR COMPLETE LOSS OF AC POWER (G2.4.52) EMERGENCY PROCEDURES / PLAN Knowledge of the lines of authority during implementation of the emergency plan, emergency plan implementing procedures, emergency operating procedures, or severe accident guidelines (CFR: 41.10 / 45.13)</t>
+  </si>
+  <si>
+    <t>(295018AA2.03) Ability to determine and/or interpret the following as they apply to (APE 18) PARTIAL OR COMPLETE LOSS OF COMPONENT COOLING WATER (CCW): (CFR: 41.10 / 43.5 / 45.13) Partial or complete loss</t>
+  </si>
+  <si>
+    <t>(295004AK3.01) Knowledge of the reasons for the following responses or actions as they apply to (APE 4) PARTIAL OR COMPLETE LOSS OF DC POWER: (CFR: 41.5 / 45.6) Load shedding</t>
+  </si>
+  <si>
+    <t>(295021AK1.01) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 21) LOSS OF SHUTDOWN COOLING:(CFR: 41.8 to 41.10) Decay heat</t>
+  </si>
+  <si>
+    <t>(295006AA1.02) Ability to operate and/or monitor the following as they apply to (APE 6) SCRAM: (CFR: 41.7 / 45.6) Reactor water level control system</t>
+  </si>
+  <si>
+    <t>(295005AK2.04) Knowledge of the relationship between the (APE 5) MAIN TURBINE GENERATOR TRIP and the following systems or components: (CFR: 41.7 / 45.8) Main turbine generator and auxiliaries</t>
+  </si>
+  <si>
+    <t>(295016) (APE 16) CONTROL ROOM ABANDONMENT (G2.2.4) EQUIPMENT CONTROL (Multi-unit license) Ability to explain the variations in control room layouts, systems, instrumentation, or procedural actions between units at a facility (CFR: 41.6 / 41.7 / 41.10 / 45.1 / 45.13)</t>
+  </si>
+  <si>
+    <t>(295030EA2.04) Ability to determine and/or interpret the following as they apply to (EPE 7) LOW SUPPRESSION POOL WATER LEVEL: (CFR: 41.10 / 43.5 / 45.13) Drywell/suppression chamber differential pressure (Mark I, II)</t>
+  </si>
+  <si>
+    <t>(295019AK3.01) Knowledge of the reasons for the following responses or actions as they apply to (APE 19) PARTIAL OR COMPLETE LOSS OF INSTRUMENT AIR: (CFR: 41.5 / 45.6) Alignment of backup air systems</t>
+  </si>
+  <si>
+    <t>(295038EK1.04) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (EPE 15) HIGH OFFSITE RADIOACTIVITY RELEASE RATE: (CFR: 41.8 to 41.10) Elevated vs. ground level release</t>
+  </si>
+  <si>
+    <t>(295024EA1.11) Ability to operate and/or monitor the following as they apply to (EPE 1) HIGH DRYWELL PRESSURE: (CFR: 41.7 / 45.6) Drywell spray (Mark I, II)</t>
+  </si>
+  <si>
+    <t>(295025EK2.01) Knowledge of the relationship between the (EPE 2) HIGH REACTOR PRESSURE and the following systems or components: (CFR: 41.7 / 45.8) RPS</t>
+  </si>
+  <si>
+    <t>(600000) (APE 24) PLANT FIRE ON SITE (G2.4.23) EMERGENCY PROCEDURES / PLAN Knowledge of the bases for prioritizing emergency operating procedures implementation (CFR: 41.10 / 43.5 / 45.13)</t>
+  </si>
+  <si>
+    <t>(295026EA2.03) Ability to determine and/or interpret the following as they apply to (EPE 3) SUPPRESSION POOL HIGH WATER TEMPERATURE: (CFR: 41.10 / 43.5 / 45.13) Reactor pressure</t>
+  </si>
+  <si>
+    <t>(295001AK3.05) Knowledge of the reasons for the following responses or actions as they apply to (APE 1) PARTIAL OR COMPLETE LOSS OF FORCED CORE FLOW CIRCULATION: (CFR: 41.5 / 41.6) Reduced loop operating requirements</t>
   </si>
   <si>
     <t>(295027EK1.03) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (EPE 4) HIGH CONTAINMENT TEMPERATURE (MARK III CONTAINMENT ONLY): (CFR: 41.8 to 41.10) Primary containment integrity</t>
   </si>
   <si>
-    <t>(295003AA1.03) Ability to operate and/or monitor the following as they apply to (APE 3) PARTIAL OR COMPLETE LOSS OF AC POWER: (CFR: 41.7 / 45.6) Decay heat removal systems</t>
-  </si>
-  <si>
-    <t>(295025EK3.08) Knowledge of the reasons for the following responses or actions as they apply to (EPE 2) HIGH REACTOR PRESSURE: (CFR: 41.5 / 45.6) Reactor/turbine pressure regulating system operation</t>
-  </si>
-  <si>
-    <t>(600000AA2.11) Ability to determine and/or interpret the following as they apply to (APE 24) PLANT FIRE ON SITE: (CFR: 41.10 / 43.5 / 45.13) Time limit for use of respirators</t>
-  </si>
-  <si>
-    <t>(295006) (APE 6) SCRAM (G2.4.28) EMERGENCY PROCEDURES / PLAN Knowledge of procedures relating to a security event (ensure that the test item includes no safeguards information) (CFR: 41.10 / 43.5 / 45.13)</t>
-  </si>
-  <si>
-    <t>(295001AK2.02) Knowledge of the relationship between the (APE 1) PARTIAL OR COMPLETE LOSS OF FORCED CORE FLOW CIRCULATION and the following systems or components: (CFR: 41.7 / 45.8) Nuclear boiler instrumentation</t>
-  </si>
-  <si>
-    <t>(295037EK1.06) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (EPE 14) SCRAM CONDITION PRESENT AND REACTOR POWER ABOVE APRM DOWNSCALE OR UNKNOWN: (CFR: 41.8 to 41.10) Cooldown effects on reactor power</t>
-  </si>
-  <si>
-    <t>(295008AK3.08) Knowledge of the reasons for the following responses or actions as they apply to (APE 8) HIGH REACTOR WATER LEVEL: (CFR: 41.5 / 45.6) RCIC steam supply valve closure</t>
-  </si>
-  <si>
-    <t>(295022AA2.02) Ability to determine and/or interpret the following as they apply to (APE 22) LOSS OF CONTROL ROD DRIVE PUMPS: (CFR: 41.10 / 43.5 / 45.13) CRD hydraulic system status</t>
-  </si>
-  <si>
-    <t>(295033) (EPE 10) HIGH SECONDARY CONTAINMENT AREA RADIATION LEVELS (G2.2.43) EQUIPMENT CONTROL Knowledge of the process used to track inoperable alarms (CFR: 41.10 / 43.5 / 45.13)</t>
-  </si>
-  <si>
-    <t>(500000EK2.02) Knowledge of the relationship between the (EPE 16) HIGH CONTAINMENT HYDROGEN CONCENTRATION and the following systems or components: (CFR: 41.7 / 45.8) Containment oxygen monitors</t>
-  </si>
-  <si>
-    <t>(295035EK1.01) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (EPE 12) SECONDARY CONTAINMENT HIGH DIFFERENTIAL PRESSURE: (CFR: 41.8 to 41.10) Secondary containment integrity</t>
-  </si>
-  <si>
-    <t>(295013AA1.03) Ability to operate and/or monitor the following as they apply to (APE 13) HIGH SUPPRESSION POOL TEMPERATURE.: (CFR: 41.7 / 45.6) Suppression pool temperature monitoring system</t>
-  </si>
-  <si>
-    <t>(211000K4.09) Knowledge of (SF1 SLCS) STANDBY LIQUID CONTROL SYSTEM design features and/or interlocks that provide for the following: (CFR: 41.7) Dampening of positive displacement pump discharge oscillations</t>
-  </si>
-  <si>
-    <t>(215003) (SF7 IRM) INTERMEDIATE RANGE MONITOR SYSTEM (G2.4.3) EMERGENCY PROCEDURES / PLAN Ability to identify post-accident instrumentation (CFR: 41.6 / 45.4)</t>
-  </si>
-  <si>
-    <t>(212000K6.10) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF7 RPS) REACTOR PROTECTION SYSTEM : (CFR: 41.7 / 45.7) Reactor/turbine pressure regulating system</t>
-  </si>
-  <si>
-    <t>(217000K5.02) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF2, SF4 RCIC) REACTOR CORE ISOLATION COOLING SYSTEM (BWR 3, 4, 5, 6) : (CFR: 41.5 / 45.3) Flow control</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(205000A2.10) Ability to (a) predict the impacts of the following on the (SF4 SCS) SHUTDOWN COOLING SYSTEM (RHR SHUTDOWN COOLING MODE) and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 45.6) Abnormal valve position </t>
-  </si>
-  <si>
-    <t>(239002K2.01) (SF3 SRV) SAFETY RELIEF VALVES Knowledge of electrical power supplies to the following: (CFR: 41.7) SRV solenoids</t>
-  </si>
-  <si>
-    <t>(510000A4.02) Ability to manually operate and/or monitor the (SF4 SWS*) SERVICE WATER SYSTEM in the control room: (CFR: 41.7 / 45.5 to 45.8) Valve operations</t>
-  </si>
-  <si>
-    <t>(400000A3.05) Ability to monitor automatic operation of the (SF8 CCS) COMPONENT COOLING WATER SYSTEM including: (CFR: 41.7 / 45.7) System response due to a LOCA signal</t>
-  </si>
-  <si>
-    <t>(261000A1.06) Ability to predict and/or monitor changes in parameters associated with operation of the (SF9 SGTS) STANDBY GAS TREATMENT SYSTEM including: (CFR: 41.5 / 45.5) Drywell and suppression chamber differential pressure (Mark I)</t>
-  </si>
-  <si>
-    <t>(264000K1.01) Knowledge of the physical connections and/or cause and effect relationships between the (SF6 EGE) EMERGENCY GENERATORS (DIESEL/JET) and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) AC electrical distribution</t>
-  </si>
-  <si>
-    <t>(215004K3.02) Knowledge of the effect that a loss or malfunction of the (SF7 SRMS) SOURCE RANGE MONITOR SYSTEM will have on the following systems or system parameters: (CFR: 41.7 / 45.4) RMCS (BWR 2, 3, 4, 5)</t>
-  </si>
-  <si>
-    <t>(209002K4.10) Knowledge of (SF2, SF4 HPCS) HIGH PRESSURE CORE SPRAY SYSTEM design features and/or interlocks that provide for the following: (CFR: 41.7) Uniform core spray coverage</t>
-  </si>
-  <si>
-    <t>(262002) (SF6 UPS) UNINTERRUPTABLE POWER SUPPLY (AC/DC) (291002K1.16) SENSORS AND DETECTORS (CFR: 41.7) (POSITION DETECTORS) Failure modes of reed switches, LVDTs, limit switches, and potentiometers</t>
-  </si>
-  <si>
-    <t>(223002K6.03) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF5 PCIS) PRIMARY CONTAINMENT ISOLATION SYSTEM / NUCLEAR STEAM SUPPLY SHUTOFF : (CFR: 41.7 / 45.7) Process radiation monitoring system</t>
-  </si>
-  <si>
-    <t>(262001K5.02) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF6 AC) AC ELECTRICAL DISTRIBUTION: (CFR: 41.5 / 45.3) Breaker control power</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(209001A2.09) Ability to (a) predict the impacts of the following on the (SF2, SF4 LPCS) LOW PRESSURE CORE SPRAY SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Low suppression pool level </t>
-  </si>
-  <si>
-    <t>(263000K2.04) (SF6 DC) DC ELECTRICAL DISTRIBUTION Knowledge of electrical power supplies to the following: (CFR: 41.7) Inverters</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(203000A4.03) Ability to manually operate and/or monitor the (SF2, SF4 RHR/LPCI) RHR/LPCI: INJECTION MODE (BWR 3, 4, 5, 6) in the control room: (CFR: 41.7 / 45.5 to 45.8) Keep fill system </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(215005A3.01) Ability to monitor automatic operation of the (SF7 PRMS) AVERAGE POWER RANGE MONITOR/LOCAL POWER RANGE MONITOR including: (CFR: 41.7 / 45.7) Four rod display </t>
-  </si>
-  <si>
-    <t>(300000A1.01) Ability to predict and/or monitor changes in parameters associated with operation of the (SF8 IA) INSTRUMENT AIR SYSTEM including: (CFR: 41.5 / 45.5) Instrument air supply pressure</t>
-  </si>
-  <si>
-    <t>(259002K1.10) Knowledge of the physical connections and/or cause and effect relationships between the (SF2 RWLCS) REACTOR WATER LEVEL CONTROL SYSTEM and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Emergency generator(s): FWCI</t>
-  </si>
-  <si>
-    <t>(218000K3.01) Knowledge of the effect that a loss or malfunction of the (SF3 ADS) AUTOMATIC DEPRESSURIZATION SYSTEM will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Reactor water level</t>
-  </si>
-  <si>
-    <t>(211000K4.13) Knowledge of (SF1 SLCS) STANDBY LIQUID CONTROL SYSTEM design features and/or interlocks that provide for the following: (CFR: 41.7) Tank heater operation</t>
-  </si>
-  <si>
-    <t>(215003) (SF7 IRM) INTERMEDIATE RANGE MONITOR SYSTEM (G2.1.34) CONDUCT OF OPERATIONS Knowledge of RCS or balance of plant chemistry controls, including parameters measured and reasons for the control (CFR: 41.10 / 43.5 / 45.12)</t>
-  </si>
-  <si>
-    <t>(212000K6.08) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF7 RPS) REACTOR PROTECTION SYSTEM : (CFR: 41.7 / 45.7) Main turbine generator and auxiliaries systems</t>
-  </si>
-  <si>
-    <t>(217000K5.09) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF2, SF4 RCIC) REACTOR CORE ISOLATION COOLING SYSTEM (BWR 3, 4, 5, 6) : (CFR: 41.5 / 45.3) Adequate core cooling</t>
-  </si>
-  <si>
-    <t>(234000K1.11) Knowledge of the physical connections and/or cause and effect relationships between the (SF8 FH) FUEL HANDLING and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Primary containment system and auxiliaries</t>
-  </si>
-  <si>
-    <t>(245000K3.07) Knowledge of the effect that a loss or malfunction of the (SF4 MTGEN) MAIN TURBINE GENERATOR AND AUXILIARY SYSTEMS will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Reactor protection system</t>
-  </si>
-  <si>
-    <t>(204000K4.10) Knowledge of (SF2 RWCU) REACTOR WATER CLEANUP SYSTEM design features and/or interlocks that provide for the following: (CFR: 41.7) Decay heat removal</t>
-  </si>
-  <si>
-    <t>(219000) (SF5 RHR SPC) RHR/LPCI: TORUS/SUPPRESSION POOL COOLING MODE (291006K1.07) HEAT EXCHANGERS AND CONDENSERS (CFR: 41.4) Control of heat exchanger temperatures</t>
-  </si>
-  <si>
-    <t>(256000K6.07) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF2 CDS) CONDENSATE SYSTEM: (CFR: 41.7 / 45.7) Demineralized water storage and makeup system</t>
-  </si>
-  <si>
-    <t>(241000K5.05) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF3 RTPRS) REACTOR/TURBINE PRESSURE REGULATING SYSTEM: (CFR: 41.5 / 45.3) Turbine inlet pressure vs. turbine load</t>
-  </si>
-  <si>
-    <t>(272000A2.04) Ability to (a) predict the impacts of the following on the (SF7, SF9 RMS) RADIATION MONITORING SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 45.6) DC electrical failure</t>
-  </si>
-  <si>
-    <t>(201005K2.01) (SF1, SF7 RCIS) ROD CONTROL AND INFORMATION SYSTEM (BWR 6) Knowledge of electrical power supplies to the following: (CFR: 41.6 / 41.7) RCIS</t>
-  </si>
-  <si>
-    <t>(268000A4.01) Ability to manually operate and/or monitor the (SF9 RW) RADWASTE SYSTEM in the control room: (CFR: 41.7 / 45.5 to 45.8) Sump integrators</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(202001A3.02) Ability to monitor automatic operation of the (SF1, SF4 RS) RECIRCULATION SYSTEM including: (CFR: 41.7 / 45.7) Pump/MG set start sequence </t>
-  </si>
-  <si>
-    <t>(259001A1.05) Ability to predict and/or monitor changes in parameters associated with operation of the (SF2 FWS) FEEDWATER SYSTEM including: (CFR: 41.5 / 45.5) RFP turbine control valve position: turbine-driven only</t>
-  </si>
-  <si>
-    <t>(G2.1.7) CONDUCT OF OPERATIONS Ability to evaluate plant performance and make operational judgments based on operating characteristics, reactor behavior, and instrument interpretation (CFR: 41.5 / 43.5 / 45.12 / 45.13)</t>
+    <t>(295035EK2.02) Knowledge of the relationship between the (EPE 12) SECONDARY CONTAINMENT HIGH DIFFERENTIAL PRESSURE and the following systems or components: (CFR: 41.7 / 45.8) SGTS/FRVS</t>
+  </si>
+  <si>
+    <t>(295008) (APE 8) HIGH REACTOR WATER LEVEL (G2.1.8) CONDUCT OF OPERATIONS Ability to coordinate personnel activities outside the control room (CFR: 41.10 / 43.1 / 45.5 / 45.12 / 45.13)</t>
+  </si>
+  <si>
+    <t>(295036EA2.02) Ability to determine and/or interpret the following as they apply to (EPE 13) SECONDARY CONTAINMENT HIGH SUMP/AREA WATER LEVEL: (CFR: 41.10 / 43.5 / 45.13) Water level in the affected area</t>
+  </si>
+  <si>
+    <t>(295029EK3.01) Knowledge of the reasons for the following responses or actions as they apply to (EPE 6) HIGH SUPPRESSION POOL WATER LEVEL: (CFR: 41.5 / 45.6) Emergency depressurization</t>
+  </si>
+  <si>
+    <t>(295014AK1.09) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 14) INADVERTENT REACTIVITY ADDITION: (CFR: 41.8 to 41.10) Reactor power</t>
+  </si>
+  <si>
+    <t>(295017AA1.05) Ability to operate and/or monitor the following as they apply to (APE 17) ABNORMAL OFFSITE RELEASE RATE: (CFR: 41.7 / 45.6) Plant process computer/parameter display systems</t>
+  </si>
+  <si>
+    <t>(263000A3.02) Ability to monitor automatic operation of the (SF6 DC) DC ELECTRICAL DISTRIBUTION including: (CFR: 41.7 / 45.7) Breaker trips</t>
+  </si>
+  <si>
+    <t>(215005A4.04) Ability to manually operate and/or monitor the (SF7 PRMS) AVERAGE POWER RANGE MONITOR/LOCAL POWER RANGE MONITOR in the control room: (CFR: 41.7 / 45.5 to 45.8) LPRM back panel switches, meters, and indicating lights</t>
+  </si>
+  <si>
+    <t>(400000K4.08) Knowledge of (SF8 CCS) COMPONENT COOLING WATER SYSTEM design features and/or interlocks that provide for the following: (CFR: 41.7) System response to LOOP signal</t>
+  </si>
+  <si>
+    <t>(300000K1.02) Knowledge of the physical connections and/or cause and effect relationships between the (SF8 IA) INSTRUMENT AIR SYSTEM and the following systems: (CFR: 41.4 / 41.5 / 41.7 to 41.9 / 45.6 / 45.8) Service air system</t>
+  </si>
+  <si>
+    <t>(264000K2.07) (SF6 EGE) EMERGENCY GENERATORS (DIESEL/JET) Knowledge of electrical power supplies to the following: (CFR: 41.7) DC components</t>
+  </si>
+  <si>
+    <t>(217000K6.03) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF2, SF4 RCIC) REACTOR CORE ISOLATION COOLING SYSTEM (BWR 3, 4, 5, 6) : (CFR: 41.7 / 45.7) Suppression pool level</t>
+  </si>
+  <si>
+    <t>(262002) (SF6 UPS) UNINTERRUPTABLE POWER SUPPLY (AC/DC) (G2.2.23) EQUIPMENT CONTROL Ability to track technical specification limiting conditions for operation (CFR: 41.10 / 43.2 / 45.13)</t>
+  </si>
+  <si>
+    <t>(205000A1.11) Ability to predict and/or monitor changes in parameters associated with operation of the (SF4 SCS) SHUTDOWN COOLING SYSTEM (RHR SHUTDOWN COOLING MODE) including: (CFR: 41.5 / 45.5) Lights and alarms</t>
+  </si>
+  <si>
+    <t>(212000A2.12) Ability to (a) predict the impacts of the following on the (SF7 RPS) REACTOR PROTECTION SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 45.6) Main turbine stop/control valve closure</t>
+  </si>
+  <si>
+    <t>(239002K3.02) Knowledge of the effect that a loss or malfunction of the (SF3 SRV) SAFETY RELIEF VALVES will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Reactor overpressurization</t>
+  </si>
+  <si>
+    <t>(261000K5.03) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF9 SGTS) STANDBY GAS TREATMENT SYSTEM : (CFR: 41.5 / 45.3) Primary containment pressure changes</t>
+  </si>
+  <si>
+    <t>(203000A3.01) Ability to monitor automatic operation of the (SF2, SF4 RHR/LPCI) RHR/LPCI: INJECTION MODE (BWR 3, 4, 5, 6) including: (CFR: 41.7 / 45.7) Valve operation</t>
+  </si>
+  <si>
+    <t>(211000A4.02) Ability to manually operate and/or monitor the (SF1 SLCS) STANDBY LIQUID CONTROL SYSTEM in the control room: (CFR: 41.7 / 45.5 to 45.8) SLCS control switch</t>
+  </si>
+  <si>
+    <t>(262001K4.07) Knowledge of (SF6 AC) AC ELECTRICAL DISTRIBUTION design features and/or interlocks that provide for the following: (CFR: 41.7) Breaker closure permissives</t>
+  </si>
+  <si>
+    <t>(215003K1.05) Knowledge of the physical connections and/or cause and effect relationships between the (SF7 IRM) INTERMEDIATE RANGE MONITOR SYSTEM and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Display control system</t>
+  </si>
+  <si>
+    <t>(510000K2.02) (SF4 SWS*) SERVICE WATER SYSTEM Knowledge of electrical power supplies to the following: (CFR: 41.7) Service water system valves (Class 1E)</t>
+  </si>
+  <si>
+    <t>(223002K6.06) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF5 PCIS) PRIMARY CONTAINMENT ISOLATION SYSTEM / NUCLEAR STEAM SUPPLY SHUTOFF : (CFR: 41.7 / 45.7) Various process instrumentation</t>
+  </si>
+  <si>
+    <t>(259002) (SF2 RWLCS) REACTOR WATER LEVEL CONTROL SYSTEM (291002K1.09) SENSORS AND DETECTORS (CFR: 41.7) (LEVEL) Modes of failure</t>
+  </si>
+  <si>
+    <t>(215004A1.06) Ability to predict and/or monitor changes in parameters associated with operation of the (SF7 SRMS) SOURCE RANGE MONITOR SYSTEM including: (CFR: 41.5 / 45.5) Lights and alarms</t>
+  </si>
+  <si>
+    <t>(209001A2.06) Ability to (a) predict the impacts of the following on the (SF2, SF4 LPCS) LOW PRESSURE CORE SPRAY SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Inadequate system flow</t>
+  </si>
+  <si>
+    <t>(209002K3.07) Knowledge of the effect that a loss or malfunction of the (SF2, SF4 HPCS) HIGH PRESSURE CORE SPRAY SYSTEM will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Secondary containment parameters</t>
+  </si>
+  <si>
+    <t>(218000K5.06) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF3 ADS) AUTOMATIC DEPRESSURIZATION SYSTEM: (CFR: 41.5 / 45.3) Reactor water level</t>
+  </si>
+  <si>
+    <t>(263000A3.03) Ability to monitor automatic operation of the (SF6 DC) DC ELECTRICAL DISTRIBUTION including: (CFR: 41.7 / 45.7) Transfers</t>
+  </si>
+  <si>
+    <t>(215005A4.03) Ability to manually operate and/or monitor the (SF7 PRMS) AVERAGE POWER RANGE MONITOR/LOCAL POWER RANGE MONITOR in the control room: (CFR: 41.7 / 45.5 to 45.8) APRM back panel switches, meters, and indicating lights</t>
+  </si>
+  <si>
+    <t>(400000K4.07) Knowledge of (SF8 CCS) COMPONENT COOLING WATER SYSTEM design features and/or interlocks that provide for the following: (CFR: 41.7) System response to LOCA signal</t>
+  </si>
+  <si>
+    <t>(300000K1.09) Knowledge of the physical connections and/or cause and effect relationships between the (SF8 IA) INSTRUMENT AIR SYSTEM and the following systems: (CFR: 41.4 / 41.5 / 41.7 to 41.9 / 45.6 / 45.8) Condenser air removal system</t>
+  </si>
+  <si>
+    <t>(268000K3.05) Knowledge of the effect that a loss or malfunction of the (SF9 RW) RADWASTE SYSTEM will have on the following systems or system parameters: (CFR: 41.5 / 45.3) Fuel pools</t>
+  </si>
+  <si>
+    <t>(216000K5.02) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF7 NBI) NUCLEAR BOILER INSTRUMENTATION: (CFR: 41.5 / 45.3) Vessel pressure measurement</t>
+  </si>
+  <si>
+    <t>(239003A3.03) Ability to monitor automatic operation of the (SF9 MSVLCS) MAIN STEAM ISOLATION VALVE LEAKAGE CONTROL SYSTEM (BWR 4, 5, 6) including: (CFR: 41.7 / 45.7) Dilution air flows</t>
+  </si>
+  <si>
+    <t>(202002A4.11) Ability to manually operate and/or monitor the (SF1 RSCTL) RECIRCULATION FLOW CONTROL SYSTEM in the control room: (CFR: 41.7 / 45.5 to 45.8) System lockups/lockouts</t>
+  </si>
+  <si>
+    <t>(510001K4.05) Knowledge of (SF8 CWS*) CIRCULATING WATER SYSTEM design features and/or interlocks that provide for the following: (CFR: 41.7) Reactor power reduction</t>
+  </si>
+  <si>
+    <t>(290001K1.14) Knowledge of the physical connections and/or cause and effect relationships between the (SF5 SC) SECONDARY CONTAINMENT and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Fire protection system</t>
+  </si>
+  <si>
+    <t>(271000A2.12) Ability to (a) predict the impacts of the following on the (SF9 OG) OFFGAS SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6 / 45.8) Recombiner high temperature</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(239001K6.03) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF3, SF4 MRSS) MAIN AND REHEAT STEAM SYSTEM: (CFR: 41.7 / 45.7) Safety relief valves </t>
+  </si>
+  <si>
+    <t>(272000) (SF7, SF9 RMS) RADIATION MONITORING SYSTEM  (G2.2.36) EQUIPMENT CONTROL Ability to analyze the effect of maintenance activities, such as degraded power sources, on the status of limiting conditions for operation (CFR: 41.10 / 43.2 / 45.13)</t>
+  </si>
+  <si>
+    <t>(234000A1.01) Ability to predict and/or monitor changes in parameters associated with operation of the (SF8 FH) FUEL HANDLING including: (CFR: 41.5 / 45.5) Spent fuel pool level</t>
+  </si>
+  <si>
+    <t>(202001A2.21) Ability to (a) predict the impacts of the following on the (SF1, SF4 RS) RECIRCULATION SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Recirculation loop temperature out of specification</t>
+  </si>
+  <si>
+    <t>(G2.1.25) CONDUCT OF OPERATIONS Ability to interpret reference materials, such as graphs, curves, and tables (reference potential) (CFR: 41.10 / 43.5 / 45.12)</t>
+  </si>
+  <si>
+    <t>(G2.1.41) CONDUCT OF OPERATIONS Knowledge of the refueling process (CFR: 41.2 / 41.10 / 43.6 / 45.13)</t>
+  </si>
+  <si>
+    <t>(G2.2.43) EQUIPMENT CONTROL Knowledge of the process used to track inoperable alarms (CFR: 41.10 / 43.5 / 45.13)</t>
+  </si>
+  <si>
+    <t>(G2.2.17) EQUIPMENT CONTROL Knowledge of the process for managing maintenance activities during power operations, such as risk assessments, work prioritization, and coordination with the transmission system operator (CFR: 41.10 / 43.5 / 45.13)</t>
+  </si>
+  <si>
+    <t>(G2.3.12) RADIATION CONTROL Knowledge of radiological safety principles and procedures pertaining to licensed operator duties, such as response to radiation monitor alarms, containment entry requirements, fuel handling responsibilities, access to locked high-radiation areas, or alignment of filters (CFR: 41.12 / 43.4 / 45.9 / 45.10)</t>
+  </si>
+  <si>
+    <t>(G2.4.39) EMERGENCY PROCEDURES / PLAN Knowledge of RO responsibilities in emergency plan implementing procedures (CFR: 41.10 / 45.11)</t>
+  </si>
+  <si>
+    <t>(292007K1.01) FUEL DEPLETION AND BURNABLE POISONS (CFR: 41.1) Define burnable poison and state its use in the reactor</t>
+  </si>
+  <si>
+    <t>(292002K1.08) NEUTRON LIFE CYCLE (CFR: 41.1) Define effective multiplication factor (K-effective) and discuss its relationship to the state of a reactor (critical, subcritical, and supercritical)</t>
+  </si>
+  <si>
+    <t>(292005K1.07) CONTROL RODS (CFR: 41.1) Define control rod worth, differential CRW, and integral control rod worth</t>
+  </si>
+  <si>
+    <t>(293007K1.03) HEAT TRANSFER (CFR: 41.14) (HEAT TRANSFER) Explain the manner in which fluid films affects heat</t>
+  </si>
+  <si>
+    <t>(293010K1.05) BRITTLE FRACTURE AND VESSEL THERMAL STRESS (CFR: 41.14) State the effect of fast neutron irradiation on reactor vessel metals</t>
+  </si>
+  <si>
+    <t>(293006K1.30) FLUID STATICS AND DYNAMICS (CFR: 41.14) Describe the methods of controlling system flow rates</t>
+  </si>
+  <si>
+    <t>(295023) (APE 23) REFUELING ACCIDENTS (G2.2.35) EQUIPMENT CONTROL Ability to determine technical specification mode of operation (CFR: 41.7 / 41.10 / 43.2 / 45.13)</t>
+  </si>
+  <si>
+    <t>(700000AA2.06) Ability to determine and/or interpret the following as they apply to (APE 25) GENERATOR VOLTAGE AND ELECTRIC GRID DISTURBANCES: (CFR: 41.5 / 43.5 / 45.5 / 45.7 / 45.8) Generator frequency limitations</t>
+  </si>
+  <si>
+    <t>(295031) (EPE 8) REACTOR LOW WATER LEVEL (G2.1.4) CONDUCT OF OPERATIONS Knowledge of individual licensed operator responsibilities related to shift staffing, such as medical requirements, \u201cno-solo\u201d operation, maintenance of active license status, 10 CFR Part 55 (CFR: 41.10 / 43.2)</t>
+  </si>
+  <si>
+    <t>(295037EA2.08) Ability to determine and/or interpret the following as they apply to (EPE 14) SCRAM CONDITION PRESENT AND REACTOR POWER ABOVE APRM DOWNSCALE OR UNKNOWN: (CFR: 41.10 / 43.5 / 45.13) SCRAM discharge volume level</t>
+  </si>
+  <si>
+    <t>(295003) (APE 3) PARTIAL OR COMPLETE LOSS OF AC POWER (G2.4.41) EMERGENCY PROCEDURES / PLAN: Knowledge of the emergency action level thresholds and classifications (CFR: 41.10 / 43.5 / 45.11).</t>
+  </si>
+  <si>
+    <t>(295018AA2.01) Ability to determine and/or interpret the following as they apply to (APE 18) PARTIAL OR COMPLETE LOSS OF COMPONENT COOLING WATER (CCW): (CFR: 41.10 / 43.5 / 45.13) Component temperatures</t>
+  </si>
+  <si>
+    <t>(295004) (APE 4) PARTIAL OR COMPLETE LOSS OF DC POWER (G2.1.3) CONDUCT OF OPERATIONS Knowledge of shift or short-term relief turnover practices (CFR: 41.10 / 45.13)</t>
+  </si>
+  <si>
+    <t>(295033) (EPE 10) HIGH SECONDARY CONTAINMENT AREA RADIATION LEVELS (G2.1.9) CONDUCT OF OPERATIONS Ability to direct licensed personnel activities inside the control room (SRO Only) (CFR: 43.1 / 45.5 / 45.12 / 45.13)</t>
+  </si>
+  <si>
+    <t>(295022AA2.03) Ability to determine and/or interpret the following as they apply to (APE 22) LOSS OF CONTROL ROD DRIVE PUMPS: (CFR: 41.10 / 43.5 / 45.13) CRD mechanism temperatures</t>
+  </si>
+  <si>
+    <t>(295010) (APE 10) HIGH DRYWELL PRESSURE (G2.4.18) EMERGENCY PROCEDURES / PLAN Knowledge of the specific bases for emergency and abnormal operating procedures (CFR: 41.10 / 43.1 / 45.13)</t>
+  </si>
+  <si>
+    <t>(264000) (SF6 EGE) EMERGENCY GENERATORS (DIESEL/JET) (G2.2.18) EQUIPMENT CONTROL Knowledge of the process for managing maintenance activities during shutdown operations, such as risk assessments and work prioritization (CFR: 41.10 / 43.5 / 45.13)</t>
+  </si>
+  <si>
+    <t>(217000A2.01) Ability to (a) predict the impacts of the following on the (SF2, SF4 RCIC) REACTOR CORE ISOLATION COOLING SYSTEM (BWR 3, 4, 5, 6) and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Inadvertent system initiation signal</t>
+  </si>
+  <si>
+    <t>(262002) (SF6 UPS) UNINTERRUPTABLE POWER SUPPLY (AC/DC) (G2.1.29) CONDUCT OF OPERATIONS Knowledge of how to conduct system lineups, such as valves, breakers, or switches (CFR: 41.10 / 45.1 / 45.12)</t>
+  </si>
+  <si>
+    <t>(205000A2.04) Ability to (a) predict the impacts of the following on the (SF4 SCS) SHUTDOWN COOLING SYSTEM (RHR SHUTDOWN COOLING MODE) and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 45.6) Loss of DC power</t>
+  </si>
+  <si>
+    <t>(212000) (SF7 RPS) REACTOR PROTECTION SYSTEM  (G2.2.2) EQUIPMENT CONTROL Ability to manipulate the console controls as required to operate the facility between shutdown and designated power levels (CFR: 41.6 / 41.7 / 45.2)</t>
+  </si>
+  <si>
+    <t>(201005A2.09) Ability to (a) predict the impacts of the following on the (SF1, SF7 RCIS) ROD CONTROL AND INFORMATION SYSTEM (BWR 6) and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 45.6 / 45.8) Test display blinking</t>
+  </si>
+  <si>
+    <t>(204000) (SF2 RWCU) REACTOR WATER CLEANUP SYSTEM  (G2.4.30) EMERGENCY PROCEDURES / PLAN Knowledge of events related to system operation/status that must be reported to internal organizations or external agencies, such as the State, the NRC, or the transmission system operator (CFR: 41.10 / 43.5 / 45.11)</t>
+  </si>
+  <si>
+    <t>(256000A2.07) Ability to (a) predict the impacts of the following on the (SF2 CDS) CONDENSATE SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) High hotwell level</t>
   </si>
   <si>
     <t>(G2.1.31) CONDUCT OF OPERATIONS Ability to locate control room switches, controls, and indications, and to determine that they correctly reflect the desired plant lineup (CFR: 41.10 / 45.12)</t>
   </si>
   <si>
-    <t>(G2.2.23) EQUIPMENT CONTROL Ability to track technical specification limiting conditions for operation (CFR: 41.10 / 43.2 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.2.22) EQUIPMENT CONTROL Knowledge of limiting conditions for operation and safety limits (CFR: 41.5 / 43.2 / 45.2)</t>
-  </si>
-  <si>
-    <t>(G2.3.12) RADIATION CONTROL Knowledge of radiological safety principles and procedures pertaining to licensed operator duties, such as response to radiation monitor alarms, containment entry requirements, fuel handling responsibilities, access to locked high-radiation areas, or alignment of filters (CFR: 41.12 / 43.4 / 45.9 / 45.10)</t>
-  </si>
-  <si>
-    <t>(G2.4.22) EMERGENCY PROCEDURES / PLAN Knowledge of the bases for prioritizing safety functions during abnormal/emergency operations (CFR: 41.7 / 41.10 / 43.5 / 45.12)</t>
-  </si>
-  <si>
-    <t>(292002K1.11) NEUTRON LIFE CYCLE (CFR: 41.1) Define reactivity</t>
-  </si>
-  <si>
-    <t>(292003K1.06) REACTOR KINETICS AND NEUTRON SOURCES (CFR: 41.1) Explain the effect of delayed neutrons on reactor period</t>
-  </si>
-  <si>
-    <t>(292007K1.03) FUEL DEPLETION AND BURNABLE POISONS (CFR: 41.1) Given a curve of K-effective versus core age, state the reasons for maximum, minimum, and inflection points</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(293009K1.26) CORE THERMAL LIMITS (CFR: 41.14) (MCPR) Describe the effects of axial power distribution </t>
-  </si>
-  <si>
-    <t>(293003K1.07) STEAM (CFR: 41.14) Define the following term: Saturated liquid</t>
-  </si>
-  <si>
-    <t>(293010K1.03) BRITTLE FRACTURE AND VESSEL THERMAL STRESS (CFR: 41.14) Define reference temperature</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(295019AA2.01) Ability to determine and/or interpret the following as they apply to (APE 19) PARTIAL OR COMPLETE LOSS OF INSTRUMENT AIR: (CFR: 41.10 / 43.5 / 45.13) Instrument air pressure </t>
-  </si>
-  <si>
-    <t>(295016) (APE 16) CONTROL ROOM ABANDONMENT (G2.1.38) CONDUCT OF OPERATIONS Knowledge of the station’s requirements for verbal communications when implementing procedures (CFR: 41.10 / 45.13)</t>
-  </si>
-  <si>
-    <t>(295024EA2.04) Ability to determine and/or interpret the following as they apply to (EPE 1) HIGH DRYWELL PRESSURE: (CFR: 41.10 / 43.5 / 45.13) Suppression chamber pressure</t>
-  </si>
-  <si>
-    <t>(295038) (EPE 15) HIGH OFFSITE RADIOACTIVITY RELEASE RATE (G2.4.51) EMERGENCY PROCEDURES / PLAN Knowledge of emergency operating procedure exit conditions (e.g., emergency condition no longer exists or severe accident guideline entry is required) (CFR: 41.10 / 43.5 / 45.13)</t>
-  </si>
-  <si>
-    <t>(295004AA2.03) Ability to determine and/or interpret the following as they apply to (APE 4) PARTIAL OR COMPLETE LOSS OF DC POWER: (CFR: 41.10 / 43.5 / 45.13) Battery parameters</t>
-  </si>
-  <si>
-    <t>(295031) (EPE 8) REACTOR LOW WATER LEVEL (G2.1.9) CONDUCT OF OPERATIONS Ability to direct licensed personnel activities inside the control room (SRO Only) (CFR: 43.1 / 45.5 / 45.12 / 45.13)</t>
-  </si>
-  <si>
-    <t>(295030EA2.01) Ability to determine and/or interpret the following as they apply to (EPE 7) LOW SUPPRESSION POOL WATER LEVEL: (CFR: 41.10 / 43.5 / 45.13) Suppression pool level</t>
-  </si>
-  <si>
-    <t>(295036EA2.03) Ability to determine and/or interpret the following as they apply to (EPE 13) SECONDARY CONTAINMENT HIGH SUMP/AREA WATER LEVEL: (CFR: 41.10 / 43.5 / 45.13) Cause of the high water level</t>
-  </si>
-  <si>
-    <t>(295002) (APE 2) LOSS OF MAIN CONDENSER VACUUM (G2.1.17) CONDUCT OF OPERATIONS Ability to make accurate, clear, and concise verbal reports (CFR: 41.10 / 45.12 / 45.13)</t>
-  </si>
-  <si>
-    <t>(295010AA2.06) Ability to determine and/or interpret the following as they apply to (APE 10) HIGH DRYWELL PRESSURE: (CFR: 41.10 / 43.5 / 45.13) Drywell temperature</t>
-  </si>
-  <si>
-    <t>(205000A2.05) Ability to (a) predict the impacts of the following on the (SF4 SCS) SHUTDOWN COOLING SYSTEM (RHR SHUTDOWN COOLING MODE) and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 45.6) System isolation</t>
-  </si>
-  <si>
-    <t>(239002) (SF3 SRV) SAFETY RELIEF VALVES (G2.1.41) CONDUCT OF OPERATIONS Knowledge of the refueling process (CFR: 41.2 / 41.10 / 43.6 / 45.13)</t>
-  </si>
-  <si>
-    <t>(510000A2.08) Ability to (a) predict the impacts of the following on the (SF4 SWS*) SERVICE WATER SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.1 / 41.5 / 43.5 / 45.3 / 45.6 / 45.13) Abnormal intake water level</t>
-  </si>
-  <si>
-    <t>(400000) (SF8 CCS) COMPONENT COOLING WATER SYSTEM  (G2.3.11) RADIATION CONTROL Ability to control radiation releases (CFR: 41.11 / 43.4 / 45.10)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(261000A2.07) Ability to (a) predict the impacts of the following on the (SF9 SGTS) STANDBY GAS TREATMENT SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) AC electrical distribution failure </t>
-  </si>
-  <si>
-    <t>(233000) (SF9 FPCCU) FUEL POOL COOLING/CLEANUP (G2.4.46) EMERGENCY PROCEDURES / PLAN Ability to verify that the alarms are consistent with the plant conditions (CFR: 41.10 / 43.5 / 45.3 / 45.12)</t>
-  </si>
-  <si>
-    <t>(288000A2.02) Ability to (a) predict the impacts of the following on the (SF9 PVS) PLANT VENTILATION SYSTEMS and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 45.6) Low reactor water level</t>
-  </si>
-  <si>
-    <t>(239001) (SF3, SF4 MRSS) MAIN AND REHEAT STEAM SYSTEM (G2.1.46) CONDUCT OF OPERATIONS Ability to use integrated control systems to operate plant systems or components (CFR: 41.10/ 45.12 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.1.25) CONDUCT OF OPERATIONS Ability to interpret reference materials, such as graphs, curves, and tables (reference potential) (CFR: 41.10 / 43.5 / 45.12)</t>
-  </si>
-  <si>
-    <t>(G2.1.40) CONDUCT OF OPERATIONS Knowledge of refueling administrative requirements (CFR: 41.10 / 43.5 / 43.6 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.2.18) EQUIPMENT CONTROL Knowledge of the process for managing maintenance activities during shutdown operations, such as risk assessments and work prioritization (CFR: 41.10 / 43.5 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.2.5) EQUIPMENT CONTROL Knowledge of the process for making design or operating changes to the facility, such as 10 CFR 50.59, “Changes, Tests and Experiments,” screening and evaluation processes, administrative processes for temporary modifications, disabling annunciators, or installation of temporary equipment (CFR: 41.10 / 43.3 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.3.6) RADIATION CONTROL Ability to approve liquid or gaseous release permits (CFR: 41.13 / 43.4 / 45.10)</t>
-  </si>
-  <si>
-    <t>(G2.4.20) EMERGENCY PROCEDURES / PLAN Knowledge of the operational implications of emergency and abnormal operating procedures warnings, cautions, and notes (CFR: 41.10 / 43.5 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.4.47) EMERGENCY PROCEDURES / PLAN Ability to diagnose and recognize trends in an accurate and timely manner using the appropriate control room reference material (reference potential) (CFR: 41.10 / 43.5 / 45.12)</t>
+    <t>(G2.1.36) CONDUCT OF OPERATIONS Knowledge of procedures and limitations involved in core alterations (CFR: 41.10 / 43.6 / 45.7)</t>
+  </si>
+  <si>
+    <t>(G2.2.37) EQUIPMENT CONTROL Ability to determine operability or availability of safety-related equipment (SRO Only) (CFR: 43.2 / 43.5 / 45.12)</t>
+  </si>
+  <si>
+    <t>(G2.2.14) EQUIPMENT CONTROL Knowledge of the process for controlling equipment configuration or status (CFR: 41.10 / 43.3 / 45.13)</t>
+  </si>
+  <si>
+    <t>(G2.3.11) RADIATION CONTROL Ability to control radiation releases (CFR: 41.11 / 43.4 / 45.10)</t>
+  </si>
+  <si>
+    <t>(G2.4.42) EMERGENCY PROCEDURES / PLAN Knowledge of emergency response facilities (CFR: 41.10 / 45.11)</t>
+  </si>
+  <si>
+    <t>(G2.4.5) EMERGENCY PROCEDURES / PLAN Knowledge of the organization of the operating procedures network for normal, abnormal, and emergency evolutions (CFR: 41.10 / 43.5 / 45.13)</t>
+  </si>
+  <si>
+    <t>K3</t>
+  </si>
+  <si>
+    <t>K1</t>
+  </si>
+  <si>
+    <t>A1</t>
   </si>
   <si>
     <t>K2</t>
   </si>
   <si>
-    <t>K1</t>
-  </si>
-  <si>
-    <t>A1</t>
-  </si>
-  <si>
-    <t>K3</t>
+    <t>G</t>
   </si>
   <si>
     <t>A2</t>
   </si>
   <si>
-    <t>G</t>
+    <t>A3</t>
+  </si>
+  <si>
+    <t>A4</t>
   </si>
   <si>
     <t>K4</t>
@@ -358,12 +364,6 @@
     <t>K5</t>
   </si>
   <si>
-    <t>A4</t>
-  </si>
-  <si>
-    <t>A3</t>
-  </si>
-  <si>
     <t>C</t>
   </si>
   <si>
@@ -385,217 +385,217 @@
     <t>T</t>
   </si>
   <si>
+    <t>295023</t>
+  </si>
+  <si>
+    <t>700000</t>
+  </si>
+  <si>
+    <t>295031</t>
+  </si>
+  <si>
+    <t>295037</t>
+  </si>
+  <si>
+    <t>295003</t>
+  </si>
+  <si>
+    <t>295018</t>
+  </si>
+  <si>
+    <t>295004</t>
+  </si>
+  <si>
+    <t>295021</t>
+  </si>
+  <si>
+    <t>295006</t>
+  </si>
+  <si>
+    <t>295005</t>
+  </si>
+  <si>
+    <t>295016</t>
+  </si>
+  <si>
+    <t>295030</t>
+  </si>
+  <si>
     <t>295019</t>
   </si>
   <si>
-    <t>295016</t>
+    <t>295038</t>
   </si>
   <si>
     <t>295024</t>
   </si>
   <si>
-    <t>295038</t>
-  </si>
-  <si>
-    <t>295004</t>
-  </si>
-  <si>
-    <t>295031</t>
-  </si>
-  <si>
-    <t>295030</t>
-  </si>
-  <si>
-    <t>295021</t>
-  </si>
-  <si>
-    <t>700000</t>
-  </si>
-  <si>
-    <t>295023</t>
-  </si>
-  <si>
-    <t>295018</t>
-  </si>
-  <si>
-    <t>295005</t>
+    <t>295025</t>
+  </si>
+  <si>
+    <t>600000</t>
   </si>
   <si>
     <t>295026</t>
   </si>
   <si>
+    <t>295001</t>
+  </si>
+  <si>
     <t>295027</t>
   </si>
   <si>
-    <t>295003</t>
-  </si>
-  <si>
-    <t>295025</t>
-  </si>
-  <si>
-    <t>600000</t>
-  </si>
-  <si>
-    <t>295006</t>
-  </si>
-  <si>
-    <t>295001</t>
-  </si>
-  <si>
-    <t>295037</t>
+    <t>295035</t>
   </si>
   <si>
     <t>295008</t>
   </si>
   <si>
+    <t>295036</t>
+  </si>
+  <si>
+    <t>295029</t>
+  </si>
+  <si>
+    <t>295014</t>
+  </si>
+  <si>
+    <t>295017</t>
+  </si>
+  <si>
+    <t>263000</t>
+  </si>
+  <si>
+    <t>215005</t>
+  </si>
+  <si>
+    <t>400000</t>
+  </si>
+  <si>
+    <t>300000</t>
+  </si>
+  <si>
+    <t>264000</t>
+  </si>
+  <si>
+    <t>217000</t>
+  </si>
+  <si>
+    <t>262002</t>
+  </si>
+  <si>
+    <t>205000</t>
+  </si>
+  <si>
+    <t>212000</t>
+  </si>
+  <si>
+    <t>239002</t>
+  </si>
+  <si>
+    <t>261000</t>
+  </si>
+  <si>
+    <t>203000</t>
+  </si>
+  <si>
+    <t>211000</t>
+  </si>
+  <si>
+    <t>262001</t>
+  </si>
+  <si>
+    <t>215003</t>
+  </si>
+  <si>
+    <t>510000</t>
+  </si>
+  <si>
+    <t>223002</t>
+  </si>
+  <si>
+    <t>259002</t>
+  </si>
+  <si>
+    <t>215004</t>
+  </si>
+  <si>
+    <t>209001</t>
+  </si>
+  <si>
+    <t>209002</t>
+  </si>
+  <si>
+    <t>218000</t>
+  </si>
+  <si>
+    <t>268000</t>
+  </si>
+  <si>
+    <t>216000</t>
+  </si>
+  <si>
+    <t>239003</t>
+  </si>
+  <si>
+    <t>202002</t>
+  </si>
+  <si>
+    <t>510001</t>
+  </si>
+  <si>
+    <t>290001</t>
+  </si>
+  <si>
+    <t>271000</t>
+  </si>
+  <si>
+    <t>239001</t>
+  </si>
+  <si>
+    <t>272000</t>
+  </si>
+  <si>
+    <t>234000</t>
+  </si>
+  <si>
+    <t>202001</t>
+  </si>
+  <si>
+    <t>292007</t>
+  </si>
+  <si>
+    <t>292002</t>
+  </si>
+  <si>
+    <t>292005</t>
+  </si>
+  <si>
+    <t>293007</t>
+  </si>
+  <si>
+    <t>293010</t>
+  </si>
+  <si>
+    <t>293006</t>
+  </si>
+  <si>
+    <t>295033</t>
+  </si>
+  <si>
     <t>295022</t>
   </si>
   <si>
-    <t>295033</t>
-  </si>
-  <si>
-    <t>500000</t>
-  </si>
-  <si>
-    <t>295035</t>
-  </si>
-  <si>
-    <t>295013</t>
-  </si>
-  <si>
-    <t>211000</t>
-  </si>
-  <si>
-    <t>215003</t>
-  </si>
-  <si>
-    <t>212000</t>
-  </si>
-  <si>
-    <t>217000</t>
-  </si>
-  <si>
-    <t>205000</t>
-  </si>
-  <si>
-    <t>239002</t>
-  </si>
-  <si>
-    <t>510000</t>
-  </si>
-  <si>
-    <t>400000</t>
-  </si>
-  <si>
-    <t>261000</t>
-  </si>
-  <si>
-    <t>264000</t>
-  </si>
-  <si>
-    <t>215004</t>
-  </si>
-  <si>
-    <t>209002</t>
-  </si>
-  <si>
-    <t>262002</t>
-  </si>
-  <si>
-    <t>223002</t>
-  </si>
-  <si>
-    <t>262001</t>
-  </si>
-  <si>
-    <t>209001</t>
-  </si>
-  <si>
-    <t>263000</t>
-  </si>
-  <si>
-    <t>203000</t>
-  </si>
-  <si>
-    <t>215005</t>
-  </si>
-  <si>
-    <t>300000</t>
-  </si>
-  <si>
-    <t>259002</t>
-  </si>
-  <si>
-    <t>218000</t>
-  </si>
-  <si>
-    <t>234000</t>
-  </si>
-  <si>
-    <t>245000</t>
+    <t>295010</t>
+  </si>
+  <si>
+    <t>201005</t>
   </si>
   <si>
     <t>204000</t>
   </si>
   <si>
-    <t>219000</t>
-  </si>
-  <si>
     <t>256000</t>
-  </si>
-  <si>
-    <t>241000</t>
-  </si>
-  <si>
-    <t>272000</t>
-  </si>
-  <si>
-    <t>201005</t>
-  </si>
-  <si>
-    <t>268000</t>
-  </si>
-  <si>
-    <t>202001</t>
-  </si>
-  <si>
-    <t>259001</t>
-  </si>
-  <si>
-    <t>292002</t>
-  </si>
-  <si>
-    <t>292003</t>
-  </si>
-  <si>
-    <t>292007</t>
-  </si>
-  <si>
-    <t>293009</t>
-  </si>
-  <si>
-    <t>293003</t>
-  </si>
-  <si>
-    <t>293010</t>
-  </si>
-  <si>
-    <t>295036</t>
-  </si>
-  <si>
-    <t>295002</t>
-  </si>
-  <si>
-    <t>295010</t>
-  </si>
-  <si>
-    <t>233000</t>
-  </si>
-  <si>
-    <t>288000</t>
-  </si>
-  <si>
-    <t>239001</t>
   </si>
 </sst>
 </file>
@@ -984,7 +984,7 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>2.5</v>
+        <v>3.7</v>
       </c>
       <c r="D2" t="s">
         <v>105</v>
@@ -1001,7 +1001,7 @@
         <v>6</v>
       </c>
       <c r="C3">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="D3" t="s">
         <v>106</v>
@@ -1018,7 +1018,7 @@
         <v>7</v>
       </c>
       <c r="C4">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="D4" t="s">
         <v>107</v>
@@ -1035,7 +1035,7 @@
         <v>8</v>
       </c>
       <c r="C5">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="D5" t="s">
         <v>108</v>
@@ -1052,7 +1052,7 @@
         <v>9</v>
       </c>
       <c r="C6">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="D6" t="s">
         <v>109</v>
@@ -1069,7 +1069,7 @@
         <v>10</v>
       </c>
       <c r="C7">
-        <v>4</v>
+        <v>3.7</v>
       </c>
       <c r="D7" t="s">
         <v>110</v>
@@ -1103,7 +1103,7 @@
         <v>12</v>
       </c>
       <c r="C9">
-        <v>3.9</v>
+        <v>4.4</v>
       </c>
       <c r="D9" t="s">
         <v>106</v>
@@ -1120,7 +1120,7 @@
         <v>13</v>
       </c>
       <c r="C10">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="D10" t="s">
         <v>107</v>
@@ -1137,7 +1137,7 @@
         <v>14</v>
       </c>
       <c r="C11">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="D11" t="s">
         <v>108</v>
@@ -1171,7 +1171,7 @@
         <v>16</v>
       </c>
       <c r="C13">
-        <v>3.3</v>
+        <v>4.2</v>
       </c>
       <c r="D13" t="s">
         <v>110</v>
@@ -1188,7 +1188,7 @@
         <v>17</v>
       </c>
       <c r="C14">
-        <v>2.9</v>
+        <v>3.6</v>
       </c>
       <c r="D14" t="s">
         <v>105</v>
@@ -1205,7 +1205,7 @@
         <v>18</v>
       </c>
       <c r="C15">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="D15" t="s">
         <v>106</v>
@@ -1222,7 +1222,7 @@
         <v>19</v>
       </c>
       <c r="C16">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="D16" t="s">
         <v>107</v>
@@ -1239,7 +1239,7 @@
         <v>20</v>
       </c>
       <c r="C17">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="D17" t="s">
         <v>108</v>
@@ -1256,7 +1256,7 @@
         <v>21</v>
       </c>
       <c r="C18">
-        <v>3.9</v>
+        <v>3.4</v>
       </c>
       <c r="D18" t="s">
         <v>109</v>
@@ -1273,7 +1273,7 @@
         <v>22</v>
       </c>
       <c r="C19">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="D19" t="s">
         <v>110</v>
@@ -1290,7 +1290,7 @@
         <v>23</v>
       </c>
       <c r="C20">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="D20" t="s">
         <v>105</v>
@@ -1307,7 +1307,7 @@
         <v>24</v>
       </c>
       <c r="C21">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="D21" t="s">
         <v>106</v>
@@ -1324,7 +1324,7 @@
         <v>25</v>
       </c>
       <c r="C22">
-        <v>3.5</v>
+        <v>3.9</v>
       </c>
       <c r="D22" t="s">
         <v>108</v>
@@ -1341,7 +1341,7 @@
         <v>26</v>
       </c>
       <c r="C23">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="D23" t="s">
         <v>109</v>
@@ -1358,7 +1358,7 @@
         <v>27</v>
       </c>
       <c r="C24">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="D24" t="s">
         <v>110</v>
@@ -1375,7 +1375,7 @@
         <v>28</v>
       </c>
       <c r="C25">
-        <v>3.8</v>
+        <v>4.1</v>
       </c>
       <c r="D25" t="s">
         <v>105</v>
@@ -1392,7 +1392,7 @@
         <v>29</v>
       </c>
       <c r="C26">
-        <v>3.9</v>
+        <v>4.4</v>
       </c>
       <c r="D26" t="s">
         <v>106</v>
@@ -1409,7 +1409,7 @@
         <v>30</v>
       </c>
       <c r="C27">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D27" t="s">
         <v>107</v>
@@ -1426,7 +1426,7 @@
         <v>31</v>
       </c>
       <c r="C28">
-        <v>2.7</v>
+        <v>3.5</v>
       </c>
       <c r="D28" t="s">
         <v>111</v>
@@ -1443,10 +1443,10 @@
         <v>32</v>
       </c>
       <c r="C29">
-        <v>3.7</v>
+        <v>3.4</v>
       </c>
       <c r="D29" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E29" t="s">
         <v>150</v>
@@ -1460,10 +1460,10 @@
         <v>33</v>
       </c>
       <c r="C30">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="D30" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E30" t="s">
         <v>151</v>
@@ -1477,10 +1477,10 @@
         <v>34</v>
       </c>
       <c r="C31">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="D31" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="E31" t="s">
         <v>152</v>
@@ -1494,10 +1494,10 @@
         <v>35</v>
       </c>
       <c r="C32">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="D32" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E32" t="s">
         <v>153</v>
@@ -1511,10 +1511,10 @@
         <v>36</v>
       </c>
       <c r="C33">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="D33" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="E33" t="s">
         <v>154</v>
@@ -1528,10 +1528,10 @@
         <v>37</v>
       </c>
       <c r="C34">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="D34" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="E34" t="s">
         <v>155</v>
@@ -1545,10 +1545,10 @@
         <v>38</v>
       </c>
       <c r="C35">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="D35" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="E35" t="s">
         <v>156</v>
@@ -1562,10 +1562,10 @@
         <v>39</v>
       </c>
       <c r="C36">
-        <v>3.2</v>
+        <v>4.1</v>
       </c>
       <c r="D36" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="E36" t="s">
         <v>157</v>
@@ -1579,10 +1579,10 @@
         <v>40</v>
       </c>
       <c r="C37">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="D37" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E37" t="s">
         <v>158</v>
@@ -1596,10 +1596,10 @@
         <v>41</v>
       </c>
       <c r="C38">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="D38" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="E38" t="s">
         <v>159</v>
@@ -1613,7 +1613,7 @@
         <v>42</v>
       </c>
       <c r="C39">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="D39" t="s">
         <v>111</v>
@@ -1630,10 +1630,10 @@
         <v>43</v>
       </c>
       <c r="C40">
-        <v>2.7</v>
+        <v>4.1</v>
       </c>
       <c r="D40" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="E40" t="s">
         <v>161</v>
@@ -1647,10 +1647,10 @@
         <v>44</v>
       </c>
       <c r="C41">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="D41" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E41" t="s">
         <v>162</v>
@@ -1664,10 +1664,10 @@
         <v>45</v>
       </c>
       <c r="C42">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="D42" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="E42" t="s">
         <v>163</v>
@@ -1681,10 +1681,10 @@
         <v>46</v>
       </c>
       <c r="C43">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="D43" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E43" t="s">
         <v>164</v>
@@ -1698,10 +1698,10 @@
         <v>47</v>
       </c>
       <c r="C44">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="D44" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="E44" t="s">
         <v>165</v>
@@ -1715,10 +1715,10 @@
         <v>48</v>
       </c>
       <c r="C45">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="D45" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E45" t="s">
         <v>166</v>
@@ -1732,10 +1732,10 @@
         <v>49</v>
       </c>
       <c r="C46">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="D46" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="E46" t="s">
         <v>167</v>
@@ -1749,10 +1749,10 @@
         <v>50</v>
       </c>
       <c r="C47">
-        <v>3.7</v>
+        <v>4.3</v>
       </c>
       <c r="D47" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="E47" t="s">
         <v>168</v>
@@ -1769,7 +1769,7 @@
         <v>2.9</v>
       </c>
       <c r="D48" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E48" t="s">
         <v>169</v>
@@ -1783,10 +1783,10 @@
         <v>52</v>
       </c>
       <c r="C49">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="D49" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="E49" t="s">
         <v>170</v>
@@ -1800,7 +1800,7 @@
         <v>53</v>
       </c>
       <c r="C50">
-        <v>2.8</v>
+        <v>3.3</v>
       </c>
       <c r="D50" t="s">
         <v>111</v>
@@ -1817,10 +1817,10 @@
         <v>54</v>
       </c>
       <c r="C51">
-        <v>2.7</v>
+        <v>3.6</v>
       </c>
       <c r="D51" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E51" t="s">
         <v>150</v>
@@ -1834,10 +1834,10 @@
         <v>55</v>
       </c>
       <c r="C52">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="D52" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E52" t="s">
         <v>151</v>
@@ -1851,10 +1851,10 @@
         <v>56</v>
       </c>
       <c r="C53">
-        <v>4.2</v>
+        <v>2.8</v>
       </c>
       <c r="D53" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="E53" t="s">
         <v>152</v>
@@ -1868,10 +1868,10 @@
         <v>57</v>
       </c>
       <c r="C54">
-        <v>2.9</v>
+        <v>2.6</v>
       </c>
       <c r="D54" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E54" t="s">
         <v>171</v>
@@ -1885,10 +1885,10 @@
         <v>58</v>
       </c>
       <c r="C55">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="D55" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="E55" t="s">
         <v>172</v>
@@ -1902,7 +1902,7 @@
         <v>59</v>
       </c>
       <c r="C56">
-        <v>2.9</v>
+        <v>2.6</v>
       </c>
       <c r="D56" t="s">
         <v>111</v>
@@ -1919,10 +1919,10 @@
         <v>60</v>
       </c>
       <c r="C57">
-        <v>2.8</v>
+        <v>3.8</v>
       </c>
       <c r="D57" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="E57" t="s">
         <v>174</v>
@@ -1936,10 +1936,10 @@
         <v>61</v>
       </c>
       <c r="C58">
-        <v>2.5</v>
+        <v>3.3</v>
       </c>
       <c r="D58" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E58" t="s">
         <v>175</v>
@@ -1953,10 +1953,10 @@
         <v>62</v>
       </c>
       <c r="C59">
-        <v>3.3</v>
+        <v>2.9</v>
       </c>
       <c r="D59" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="E59" t="s">
         <v>176</v>
@@ -1970,10 +1970,10 @@
         <v>63</v>
       </c>
       <c r="C60">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="D60" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E60" t="s">
         <v>177</v>
@@ -1987,10 +1987,10 @@
         <v>64</v>
       </c>
       <c r="C61">
-        <v>3.3</v>
+        <v>3.9</v>
       </c>
       <c r="D61" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="E61" t="s">
         <v>178</v>
@@ -2004,10 +2004,10 @@
         <v>65</v>
       </c>
       <c r="C62">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="D62" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="E62" t="s">
         <v>179</v>
@@ -2021,10 +2021,10 @@
         <v>66</v>
       </c>
       <c r="C63">
-        <v>3.4</v>
+        <v>3.7</v>
       </c>
       <c r="D63" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="E63" t="s">
         <v>180</v>
@@ -2038,10 +2038,10 @@
         <v>67</v>
       </c>
       <c r="C64">
-        <v>2.8</v>
+        <v>3.8</v>
       </c>
       <c r="D64" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="E64" t="s">
         <v>181</v>
@@ -2055,7 +2055,7 @@
         <v>68</v>
       </c>
       <c r="C65">
-        <v>4.4</v>
+        <v>3.9</v>
       </c>
       <c r="D65" t="s">
         <v>117</v>
@@ -2072,7 +2072,7 @@
         <v>69</v>
       </c>
       <c r="C66">
-        <v>4.6</v>
+        <v>2.8</v>
       </c>
       <c r="D66" t="s">
         <v>117</v>
@@ -2089,7 +2089,7 @@
         <v>70</v>
       </c>
       <c r="C67">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="D67" t="s">
         <v>118</v>
@@ -2106,7 +2106,7 @@
         <v>71</v>
       </c>
       <c r="C68">
-        <v>4</v>
+        <v>2.6</v>
       </c>
       <c r="D68" t="s">
         <v>118</v>
@@ -2140,7 +2140,7 @@
         <v>73</v>
       </c>
       <c r="C70">
-        <v>3.6</v>
+        <v>3.9</v>
       </c>
       <c r="D70" t="s">
         <v>120</v>
@@ -2157,7 +2157,7 @@
         <v>74</v>
       </c>
       <c r="C71">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="D71" t="s">
         <v>121</v>
@@ -2174,7 +2174,7 @@
         <v>75</v>
       </c>
       <c r="C72">
-        <v>3.7</v>
+        <v>2.8</v>
       </c>
       <c r="D72" t="s">
         <v>121</v>
@@ -2191,7 +2191,7 @@
         <v>76</v>
       </c>
       <c r="C73">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="D73" t="s">
         <v>121</v>
@@ -2208,7 +2208,7 @@
         <v>77</v>
       </c>
       <c r="C74">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="D74" t="s">
         <v>122</v>
@@ -2242,7 +2242,7 @@
         <v>79</v>
       </c>
       <c r="C76">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="D76" t="s">
         <v>122</v>
@@ -2259,7 +2259,7 @@
         <v>80</v>
       </c>
       <c r="C77">
-        <v>3.9</v>
+        <v>4.5</v>
       </c>
       <c r="D77" t="s">
         <v>109</v>
@@ -2276,7 +2276,7 @@
         <v>81</v>
       </c>
       <c r="C78">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="D78" t="s">
         <v>110</v>
@@ -2293,7 +2293,7 @@
         <v>82</v>
       </c>
       <c r="C79">
-        <v>4.3</v>
+        <v>3.8</v>
       </c>
       <c r="D79" t="s">
         <v>109</v>
@@ -2327,7 +2327,7 @@
         <v>84</v>
       </c>
       <c r="C81">
-        <v>3.7</v>
+        <v>4.6</v>
       </c>
       <c r="D81" t="s">
         <v>109</v>
@@ -2344,7 +2344,7 @@
         <v>85</v>
       </c>
       <c r="C82">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="D82" t="s">
         <v>110</v>
@@ -2361,7 +2361,7 @@
         <v>86</v>
       </c>
       <c r="C83">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="D83" t="s">
         <v>109</v>
@@ -2378,7 +2378,7 @@
         <v>87</v>
       </c>
       <c r="C84">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="D84" t="s">
         <v>109</v>
@@ -2395,7 +2395,7 @@
         <v>88</v>
       </c>
       <c r="C85">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="D85" t="s">
         <v>110</v>
@@ -2412,7 +2412,7 @@
         <v>89</v>
       </c>
       <c r="C86">
-        <v>3.7</v>
+        <v>4</v>
       </c>
       <c r="D86" t="s">
         <v>109</v>
@@ -2429,7 +2429,7 @@
         <v>90</v>
       </c>
       <c r="C87">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="D87" t="s">
         <v>109</v>
@@ -2446,7 +2446,7 @@
         <v>91</v>
       </c>
       <c r="C88">
-        <v>3.7</v>
+        <v>4.2</v>
       </c>
       <c r="D88" t="s">
         <v>110</v>
@@ -2463,7 +2463,7 @@
         <v>92</v>
       </c>
       <c r="C89">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="D89" t="s">
         <v>109</v>
@@ -2480,7 +2480,7 @@
         <v>93</v>
       </c>
       <c r="C90">
-        <v>4.3</v>
+        <v>3.6</v>
       </c>
       <c r="D90" t="s">
         <v>110</v>
@@ -2497,7 +2497,7 @@
         <v>94</v>
       </c>
       <c r="C91">
-        <v>3.5</v>
+        <v>4.1</v>
       </c>
       <c r="D91" t="s">
         <v>109</v>
@@ -2514,7 +2514,7 @@
         <v>95</v>
       </c>
       <c r="C92">
-        <v>4.2</v>
+        <v>2.9</v>
       </c>
       <c r="D92" t="s">
         <v>110</v>
@@ -2531,7 +2531,7 @@
         <v>96</v>
       </c>
       <c r="C93">
-        <v>3.2</v>
+        <v>4.1</v>
       </c>
       <c r="D93" t="s">
         <v>109</v>
@@ -2548,7 +2548,7 @@
         <v>97</v>
       </c>
       <c r="C94">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="D94" t="s">
         <v>110</v>
@@ -2565,7 +2565,7 @@
         <v>98</v>
       </c>
       <c r="C95">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="D95" t="s">
         <v>117</v>
@@ -2582,7 +2582,7 @@
         <v>99</v>
       </c>
       <c r="C96">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="D96" t="s">
         <v>117</v>
@@ -2599,7 +2599,7 @@
         <v>100</v>
       </c>
       <c r="C97">
-        <v>3.9</v>
+        <v>4.6</v>
       </c>
       <c r="D97" t="s">
         <v>118</v>
@@ -2616,7 +2616,7 @@
         <v>101</v>
       </c>
       <c r="C98">
-        <v>3.2</v>
+        <v>4.3</v>
       </c>
       <c r="D98" t="s">
         <v>118</v>
@@ -2633,7 +2633,7 @@
         <v>102</v>
       </c>
       <c r="C99">
-        <v>3.8</v>
+        <v>4.3</v>
       </c>
       <c r="D99" t="s">
         <v>119</v>
@@ -2650,7 +2650,7 @@
         <v>103</v>
       </c>
       <c r="C100">
-        <v>4.3</v>
+        <v>3.8</v>
       </c>
       <c r="D100" t="s">
         <v>120</v>
@@ -2667,7 +2667,7 @@
         <v>104</v>
       </c>
       <c r="C101">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="D101" t="s">
         <v>120</v>
